--- a/data/trans_orig/cron_prev_index-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/cron_prev_index-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04A50D4D-9691-483B-B08E-0C4B657F0F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C93B1E0-21B0-4092-86BB-5722E76AED05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{89B3A7F5-58D6-4E30-B13E-E901BE322C66}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{35C4D4CF-C171-4F54-8D75-B2006FE33D9A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="544">
   <si>
     <t>Índice de cronicidad física en base a la prevalencia en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -86,7 +86,7 @@
     <t>0,16%</t>
   </si>
   <si>
-    <t>0,97%</t>
+    <t>0,92%</t>
   </si>
   <si>
     <t>0,23%</t>
@@ -95,1597 +95,1570 @@
     <t>0,09%</t>
   </si>
   <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Índice de cronicidad física en base a la prevalencia en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>Índice de cronicidad física en base a la prevalencia en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
   </si>
   <si>
     <t>4,41%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Índice de cronicidad física en base a la prevalencia en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>Índice de cronicidad física en base a la prevalencia en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>Índice de cronicidad física en base a la prevalencia en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
   </si>
   <si>
     <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>Índice de cronicidad física en base a la prevalencia en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
   </si>
   <si>
     <t>99,81%</t>
@@ -2109,7 +2082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9D2097-551F-4085-80FE-69D5EE04280F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEE803F-F5FE-4A6E-B4DF-27CA55E157AE}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2365,13 +2338,13 @@
         <v>61800</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,13 +2359,13 @@
         <v>54981</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="H7" s="7">
         <v>120</v>
@@ -2401,13 +2374,13 @@
         <v>124261</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>177</v>
@@ -2416,13 +2389,13 @@
         <v>179241</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2437,13 +2410,13 @@
         <v>161779</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H8" s="7">
         <v>274</v>
@@ -2452,13 +2425,13 @@
         <v>281944</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>446</v>
@@ -2467,13 +2440,13 @@
         <v>443723</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,13 +2461,13 @@
         <v>267537</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H9" s="7">
         <v>355</v>
@@ -2503,13 +2476,13 @@
         <v>358229</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>627</v>
@@ -2518,13 +2491,13 @@
         <v>625767</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2539,13 +2512,13 @@
         <v>523831</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>489</v>
@@ -2554,13 +2527,13 @@
         <v>494935</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>1000</v>
@@ -2569,13 +2542,13 @@
         <v>1018766</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,13 +2563,13 @@
         <v>1031723</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>1291</v>
@@ -2605,13 +2578,13 @@
         <v>1315113</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M11" s="7">
         <v>2329</v>
@@ -2620,18 +2593,18 @@
         <v>2346836</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="5">
         <v>6</v>
@@ -2643,28 +2616,28 @@
         <v>909</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -2673,13 +2646,13 @@
         <v>909</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,13 +2667,13 @@
         <v>909</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2709,13 +2682,13 @@
         <v>1998</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -2727,10 +2700,10 @@
         <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,13 +2718,13 @@
         <v>6135</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -2760,13 +2733,13 @@
         <v>7075</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -2775,13 +2748,13 @@
         <v>13210</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2796,13 +2769,13 @@
         <v>22600</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H15" s="7">
         <v>10</v>
@@ -2811,13 +2784,13 @@
         <v>10035</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M15" s="7">
         <v>33</v>
@@ -2826,13 +2799,13 @@
         <v>32635</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2847,13 +2820,13 @@
         <v>43912</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>74</v>
@@ -2862,13 +2835,13 @@
         <v>75587</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>118</v>
@@ -2877,13 +2850,13 @@
         <v>119499</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2898,13 +2871,13 @@
         <v>277190</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>294</v>
@@ -2913,13 +2886,13 @@
         <v>302159</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>566</v>
@@ -2928,13 +2901,13 @@
         <v>579349</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2949,13 +2922,13 @@
         <v>1341758</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>1168</v>
@@ -2964,13 +2937,13 @@
         <v>1190820</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>2470</v>
@@ -2979,13 +2952,13 @@
         <v>2532578</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,13 +2973,13 @@
         <v>1693412</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H19" s="7">
         <v>1554</v>
@@ -3015,13 +2988,13 @@
         <v>1587673</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M19" s="7">
         <v>3203</v>
@@ -3030,18 +3003,18 @@
         <v>3281086</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5">
         <v>6</v>
@@ -3059,7 +3032,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3074,22 +3047,22 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,7 +3083,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -3125,22 +3098,22 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="M21" s="7">
-        <v>0</v>
-      </c>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,13 +3128,13 @@
         <v>4381</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -3170,13 +3143,13 @@
         <v>1274</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -3185,13 +3158,13 @@
         <v>5655</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,13 +3179,13 @@
         <v>3634</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -3221,13 +3194,13 @@
         <v>5092</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -3236,13 +3209,13 @@
         <v>8725</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,13 +3230,13 @@
         <v>19285</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H24" s="7">
         <v>15</v>
@@ -3272,13 +3245,13 @@
         <v>15985</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M24" s="7">
         <v>33</v>
@@ -3287,13 +3260,13 @@
         <v>35270</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,13 +3281,13 @@
         <v>88221</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>82</v>
@@ -3323,13 +3296,13 @@
         <v>88110</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>166</v>
@@ -3338,13 +3311,13 @@
         <v>176331</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,13 +3332,13 @@
         <v>435887</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>349</v>
@@ -3374,13 +3347,13 @@
         <v>365951</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>766</v>
@@ -3389,13 +3362,13 @@
         <v>801839</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,13 +3383,13 @@
         <v>551408</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H27" s="7">
         <v>452</v>
@@ -3425,13 +3398,13 @@
         <v>476412</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M27" s="7">
         <v>979</v>
@@ -3440,13 +3413,13 @@
         <v>1027820</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,13 +3436,13 @@
         <v>909</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -3481,10 +3454,10 @@
         <v>14</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -3496,10 +3469,10 @@
         <v>17</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,13 +3487,13 @@
         <v>6319</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>169</v>
+        <v>83</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -3529,13 +3502,13 @@
         <v>8795</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M29" s="7">
         <v>15</v>
@@ -3547,10 +3520,10 @@
         <v>16</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,13 +3538,13 @@
         <v>28701</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>25</v>
+        <v>167</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H30" s="7">
         <v>49</v>
@@ -3580,13 +3553,13 @@
         <v>51963</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M30" s="7">
         <v>79</v>
@@ -3595,13 +3568,13 @@
         <v>80665</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,13 +3589,13 @@
         <v>81214</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="H31" s="7">
         <v>135</v>
@@ -3631,13 +3604,13 @@
         <v>139388</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M31" s="7">
         <v>219</v>
@@ -3646,13 +3619,13 @@
         <v>220602</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3667,13 +3640,13 @@
         <v>224975</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H32" s="7">
         <v>363</v>
@@ -3682,13 +3655,13 @@
         <v>373516</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M32" s="7">
         <v>597</v>
@@ -3697,13 +3670,13 @@
         <v>598491</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3718,13 +3691,13 @@
         <v>632949</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>195</v>
+        <v>47</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H33" s="7">
         <v>731</v>
@@ -3733,13 +3706,13 @@
         <v>748498</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="M33" s="7">
         <v>1359</v>
@@ -3748,13 +3721,13 @@
         <v>1381446</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3742,13 @@
         <v>2301477</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H34" s="7">
         <v>2006</v>
@@ -3784,13 +3757,13 @@
         <v>2051706</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M34" s="7">
         <v>4236</v>
@@ -3799,13 +3772,13 @@
         <v>4353182</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,13 +3793,13 @@
         <v>3276544</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H35" s="7">
         <v>3297</v>
@@ -3835,33 +3808,33 @@
         <v>3379198</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M35" s="7">
         <v>6511</v>
       </c>
       <c r="N35" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3880,7 +3853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251DB4AC-3606-4E95-B1A9-E0CEBA60A8AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C405FF-00F9-4C1A-A73F-61FCD85EA22E}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3897,7 +3870,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4022,10 +3995,10 @@
         <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>216</v>
+        <v>84</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4034,13 +4007,13 @@
         <v>3058</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,13 +4028,13 @@
         <v>7482</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>218</v>
+        <v>130</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -4070,13 +4043,13 @@
         <v>19948</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>221</v>
+        <v>142</v>
       </c>
       <c r="M5" s="7">
         <v>26</v>
@@ -4085,13 +4058,13 @@
         <v>27430</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,13 +4079,13 @@
         <v>33885</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H6" s="7">
         <v>58</v>
@@ -4121,13 +4094,13 @@
         <v>61875</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>229</v>
+        <v>96</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="M6" s="7">
         <v>87</v>
@@ -4136,13 +4109,13 @@
         <v>95760</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4130,13 @@
         <v>102642</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="H7" s="7">
         <v>148</v>
@@ -4172,13 +4145,13 @@
         <v>157409</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="M7" s="7">
         <v>244</v>
@@ -4187,13 +4160,13 @@
         <v>260051</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,13 +4181,13 @@
         <v>170478</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="H8" s="7">
         <v>266</v>
@@ -4223,13 +4196,13 @@
         <v>281831</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="M8" s="7">
         <v>421</v>
@@ -4238,13 +4211,13 @@
         <v>452309</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,13 +4232,13 @@
         <v>226533</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="H9" s="7">
         <v>332</v>
@@ -4274,13 +4247,13 @@
         <v>356632</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="M9" s="7">
         <v>538</v>
@@ -4289,13 +4262,13 @@
         <v>583166</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,13 +4283,13 @@
         <v>433623</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="H10" s="7">
         <v>421</v>
@@ -4325,13 +4298,13 @@
         <v>457044</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="M10" s="7">
         <v>836</v>
@@ -4340,13 +4313,13 @@
         <v>890667</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,13 +4334,13 @@
         <v>974643</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>1247</v>
@@ -4376,13 +4349,13 @@
         <v>1337796</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M11" s="7">
         <v>2155</v>
@@ -4391,18 +4364,18 @@
         <v>2312440</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="5">
         <v>6</v>
@@ -4414,28 +4387,28 @@
         <v>1051</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -4444,13 +4417,13 @@
         <v>1051</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4471,7 +4444,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4486,7 +4459,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4501,7 +4474,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,13 +4489,13 @@
         <v>5086</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -4531,13 +4504,13 @@
         <v>6110</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>270</v>
+        <v>163</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -4546,13 +4519,13 @@
         <v>11195</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>273</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,13 +4540,13 @@
         <v>30543</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>27</v>
+        <v>265</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="H15" s="7">
         <v>21</v>
@@ -4582,13 +4555,13 @@
         <v>25625</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="M15" s="7">
         <v>49</v>
@@ -4597,13 +4570,13 @@
         <v>56168</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4618,13 +4591,13 @@
         <v>96841</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="H16" s="7">
         <v>83</v>
@@ -4633,13 +4606,13 @@
         <v>91270</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>284</v>
+        <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="M16" s="7">
         <v>173</v>
@@ -4648,13 +4621,13 @@
         <v>188110</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,13 +4642,13 @@
         <v>326388</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="H17" s="7">
         <v>307</v>
@@ -4684,13 +4657,13 @@
         <v>334991</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>292</v>
+        <v>111</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="M17" s="7">
         <v>609</v>
@@ -4699,13 +4672,13 @@
         <v>661379</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,13 +4693,13 @@
         <v>1504049</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="H18" s="7">
         <v>1218</v>
@@ -4735,13 +4708,13 @@
         <v>1299808</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="M18" s="7">
         <v>2648</v>
@@ -4750,13 +4723,13 @@
         <v>2803857</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4771,13 +4744,13 @@
         <v>1963957</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H19" s="7">
         <v>1635</v>
@@ -4786,13 +4759,13 @@
         <v>1757803</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M19" s="7">
         <v>3491</v>
@@ -4801,18 +4774,18 @@
         <v>3721760</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5">
         <v>6</v>
@@ -4830,7 +4803,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4845,7 +4818,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4875,13 +4848,13 @@
         <v>2145</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>308</v>
+        <v>87</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -4890,13 +4863,13 @@
         <v>1162</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>173</v>
+        <v>299</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -4905,13 +4878,13 @@
         <v>3307</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>270</v>
+        <v>163</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4932,7 +4905,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -4941,13 +4914,13 @@
         <v>4238</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>311</v>
+        <v>15</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -4956,13 +4929,13 @@
         <v>4238</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>313</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +4950,13 @@
         <v>8175</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>316</v>
+        <v>96</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -4992,13 +4965,13 @@
         <v>1805</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>169</v>
+        <v>304</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>175</v>
+        <v>305</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -5007,13 +4980,13 @@
         <v>9980</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>317</v>
+        <v>265</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>318</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,13 +5001,13 @@
         <v>12379</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -5043,13 +5016,13 @@
         <v>15844</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>33</v>
+        <v>270</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="M24" s="7">
         <v>24</v>
@@ -5058,13 +5031,13 @@
         <v>28224</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,13 +5052,13 @@
         <v>86170</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="H25" s="7">
         <v>70</v>
@@ -5094,13 +5067,13 @@
         <v>80180</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>51</v>
+        <v>315</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="M25" s="7">
         <v>149</v>
@@ -5109,13 +5082,13 @@
         <v>166349</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5130,13 +5103,13 @@
         <v>372312</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="H26" s="7">
         <v>322</v>
@@ -5145,13 +5118,13 @@
         <v>355401</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="M26" s="7">
         <v>663</v>
@@ -5160,13 +5133,13 @@
         <v>727714</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,13 +5154,13 @@
         <v>481181</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H27" s="7">
         <v>412</v>
@@ -5196,13 +5169,13 @@
         <v>458631</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M27" s="7">
         <v>850</v>
@@ -5211,13 +5184,13 @@
         <v>939812</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5234,13 +5207,13 @@
         <v>1051</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>82</v>
+        <v>330</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -5252,10 +5225,10 @@
         <v>17</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>309</v>
+        <v>16</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -5264,13 +5237,13 @@
         <v>4109</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>82</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,13 +5258,13 @@
         <v>9627</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>345</v>
+        <v>19</v>
       </c>
       <c r="H29" s="7">
         <v>20</v>
@@ -5300,13 +5273,13 @@
         <v>21110</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>347</v>
+        <v>15</v>
       </c>
       <c r="M29" s="7">
         <v>28</v>
@@ -5315,13 +5288,13 @@
         <v>30737</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>348</v>
+        <v>259</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,13 +5309,13 @@
         <v>38971</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>274</v>
+        <v>336</v>
       </c>
       <c r="H30" s="7">
         <v>68</v>
@@ -5351,13 +5324,13 @@
         <v>72222</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>274</v>
+        <v>337</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="M30" s="7">
         <v>102</v>
@@ -5366,13 +5339,13 @@
         <v>111193</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>89</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,13 +5360,13 @@
         <v>141360</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="H31" s="7">
         <v>170</v>
@@ -5402,13 +5375,13 @@
         <v>184839</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="M31" s="7">
         <v>301</v>
@@ -5417,13 +5390,13 @@
         <v>326199</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,13 +5411,13 @@
         <v>279698</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="H32" s="7">
         <v>363</v>
@@ -5453,13 +5426,13 @@
         <v>388945</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="M32" s="7">
         <v>618</v>
@@ -5468,13 +5441,13 @@
         <v>668643</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,13 +5462,13 @@
         <v>639092</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="H33" s="7">
         <v>709</v>
@@ -5504,13 +5477,13 @@
         <v>771803</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>252</v>
+        <v>320</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="M33" s="7">
         <v>1296</v>
@@ -5519,13 +5492,13 @@
         <v>1410894</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5540,13 +5513,13 @@
         <v>2309985</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="H34" s="7">
         <v>1961</v>
@@ -5555,13 +5528,13 @@
         <v>2112253</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="M34" s="7">
         <v>4147</v>
@@ -5570,13 +5543,13 @@
         <v>4422238</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5591,13 +5564,13 @@
         <v>3419782</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H35" s="7">
         <v>3294</v>
@@ -5606,13 +5579,13 @@
         <v>3554230</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M35" s="7">
         <v>6496</v>
@@ -5621,18 +5594,18 @@
         <v>6974012</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -5651,7 +5624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481CD528-4AA8-4A53-9198-70C557F3A6DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02A8E8A-28CA-4D2D-9754-B0148C0A87CB}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5668,7 +5641,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5781,7 +5754,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5790,13 +5763,13 @@
         <v>1213</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5805,13 +5778,13 @@
         <v>1213</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>169</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5826,13 +5799,13 @@
         <v>4507</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>391</v>
+        <v>340</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -5841,13 +5814,13 @@
         <v>13118</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>349</v>
+        <v>262</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -5856,13 +5829,13 @@
         <v>17626</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>395</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>274</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5877,13 +5850,13 @@
         <v>18713</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="H6" s="7">
         <v>38</v>
@@ -5892,13 +5865,13 @@
         <v>44513</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="M6" s="7">
         <v>59</v>
@@ -5907,13 +5880,13 @@
         <v>63226</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,13 +5901,13 @@
         <v>72248</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="H7" s="7">
         <v>92</v>
@@ -5943,13 +5916,13 @@
         <v>106967</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="M7" s="7">
         <v>169</v>
@@ -5958,13 +5931,13 @@
         <v>179215</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,13 +5952,13 @@
         <v>123134</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="H8" s="7">
         <v>169</v>
@@ -5994,13 +5967,13 @@
         <v>198918</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="M8" s="7">
         <v>300</v>
@@ -6009,13 +5982,13 @@
         <v>322052</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>106</v>
+        <v>404</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>296</v>
+        <v>405</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6030,13 +6003,13 @@
         <v>188245</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="H9" s="7">
         <v>273</v>
@@ -6045,13 +6018,13 @@
         <v>305062</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>425</v>
+        <v>253</v>
       </c>
       <c r="M9" s="7">
         <v>464</v>
@@ -6060,13 +6033,13 @@
         <v>493307</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6081,13 +6054,13 @@
         <v>347498</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="H10" s="7">
         <v>308</v>
@@ -6096,13 +6069,13 @@
         <v>324869</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="M10" s="7">
         <v>645</v>
@@ -6111,13 +6084,13 @@
         <v>672367</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6132,13 +6105,13 @@
         <v>754347</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>892</v>
@@ -6147,13 +6120,13 @@
         <v>994660</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M11" s="7">
         <v>1654</v>
@@ -6162,18 +6135,18 @@
         <v>1749007</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="5">
         <v>6</v>
@@ -6191,7 +6164,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -6200,13 +6173,13 @@
         <v>1033</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -6215,13 +6188,13 @@
         <v>1033</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6242,7 +6215,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -6251,13 +6224,13 @@
         <v>1979</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>270</v>
+        <v>424</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -6266,13 +6239,13 @@
         <v>1979</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6287,13 +6260,13 @@
         <v>13974</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>270</v>
+        <v>424</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -6302,13 +6275,13 @@
         <v>14030</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>440</v>
+        <v>304</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>176</v>
+        <v>427</v>
       </c>
       <c r="M14" s="7">
         <v>24</v>
@@ -6317,13 +6290,13 @@
         <v>28004</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>27</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6338,13 +6311,13 @@
         <v>37658</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>443</v>
+        <v>340</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>351</v>
+        <v>431</v>
       </c>
       <c r="H15" s="7">
         <v>36</v>
@@ -6353,13 +6326,13 @@
         <v>42780</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>177</v>
+        <v>433</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>445</v>
+        <v>310</v>
       </c>
       <c r="M15" s="7">
         <v>72</v>
@@ -6368,13 +6341,13 @@
         <v>80437</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>173</v>
+        <v>336</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6389,13 +6362,13 @@
         <v>110695</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="H16" s="7">
         <v>118</v>
@@ -6404,13 +6377,13 @@
         <v>133294</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="M16" s="7">
         <v>224</v>
@@ -6419,13 +6392,13 @@
         <v>243988</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6440,13 +6413,13 @@
         <v>413466</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="H17" s="7">
         <v>366</v>
@@ -6455,13 +6428,13 @@
         <v>390797</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>196</v>
+        <v>448</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="M17" s="7">
         <v>757</v>
@@ -6470,13 +6443,13 @@
         <v>804263</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>109</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6491,13 +6464,13 @@
         <v>1500593</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="H18" s="7">
         <v>1373</v>
@@ -6506,13 +6479,13 @@
         <v>1404387</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="M18" s="7">
         <v>2780</v>
@@ -6521,13 +6494,13 @@
         <v>2904980</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6542,13 +6515,13 @@
         <v>2076385</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H19" s="7">
         <v>1908</v>
@@ -6557,13 +6530,13 @@
         <v>1988300</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M19" s="7">
         <v>3860</v>
@@ -6572,18 +6545,18 @@
         <v>4064685</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5">
         <v>6</v>
@@ -6601,7 +6574,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>440</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6616,7 +6589,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6631,7 +6604,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6646,13 +6619,13 @@
         <v>924</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>131</v>
+        <v>461</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6667,7 +6640,7 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -6676,13 +6649,13 @@
         <v>924</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>471</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6697,13 +6670,13 @@
         <v>1763</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>472</v>
+        <v>340</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -6712,13 +6685,13 @@
         <v>1033</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>220</v>
+        <v>462</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -6727,13 +6700,13 @@
         <v>2796</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>473</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,13 +6721,13 @@
         <v>2658</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>18</v>
+        <v>463</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -6763,13 +6736,13 @@
         <v>8258</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>475</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>346</v>
+        <v>464</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -6778,13 +6751,13 @@
         <v>10916</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>18</v>
+        <v>463</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6799,13 +6772,13 @@
         <v>38297</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>480</v>
+        <v>343</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="H24" s="7">
         <v>22</v>
@@ -6814,13 +6787,13 @@
         <v>27925</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="M24" s="7">
         <v>56</v>
@@ -6829,13 +6802,13 @@
         <v>66221</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6850,13 +6823,13 @@
         <v>108803</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="H25" s="7">
         <v>89</v>
@@ -6865,13 +6838,13 @@
         <v>97016</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="M25" s="7">
         <v>186</v>
@@ -6880,13 +6853,13 @@
         <v>205820</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>328</v>
+        <v>481</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6901,13 +6874,13 @@
         <v>394441</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="H26" s="7">
         <v>407</v>
@@ -6916,13 +6889,13 @@
         <v>414908</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>113</v>
+        <v>489</v>
       </c>
       <c r="M26" s="7">
         <v>773</v>
@@ -6931,13 +6904,13 @@
         <v>809348</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6952,13 +6925,13 @@
         <v>546886</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H27" s="7">
         <v>526</v>
@@ -6967,13 +6940,13 @@
         <v>549140</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M27" s="7">
         <v>1027</v>
@@ -6982,13 +6955,13 @@
         <v>1096026</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7011,7 +6984,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -7020,13 +6993,13 @@
         <v>2247</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -7035,13 +7008,13 @@
         <v>2247</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>504</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7059,10 +7032,10 @@
         <v>14</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>270</v>
+        <v>212</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -7071,13 +7044,13 @@
         <v>15097</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -7086,13 +7059,13 @@
         <v>20529</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>84</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7107,13 +7080,13 @@
         <v>34450</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>506</v>
+        <v>429</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>218</v>
+        <v>494</v>
       </c>
       <c r="H30" s="7">
         <v>51</v>
@@ -7122,13 +7095,13 @@
         <v>59576</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>507</v>
+        <v>216</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>308</v>
+        <v>496</v>
       </c>
       <c r="M30" s="7">
         <v>85</v>
@@ -7137,13 +7110,13 @@
         <v>94027</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>509</v>
+        <v>300</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7158,13 +7131,13 @@
         <v>112564</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="H31" s="7">
         <v>135</v>
@@ -7173,13 +7146,13 @@
         <v>158004</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>185</v>
+        <v>502</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>515</v>
+        <v>140</v>
       </c>
       <c r="M31" s="7">
         <v>250</v>
@@ -7188,13 +7161,13 @@
         <v>270569</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>516</v>
+        <v>272</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>143</v>
+        <v>503</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>31</v>
+        <v>504</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7209,13 +7182,13 @@
         <v>272126</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>192</v>
+        <v>507</v>
       </c>
       <c r="H32" s="7">
         <v>309</v>
@@ -7224,13 +7197,13 @@
         <v>360136</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="M32" s="7">
         <v>580</v>
@@ -7239,13 +7212,13 @@
         <v>632262</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7260,13 +7233,13 @@
         <v>710515</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="H33" s="7">
         <v>728</v>
@@ -7275,13 +7248,13 @@
         <v>792875</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>519</v>
       </c>
       <c r="M33" s="7">
         <v>1407</v>
@@ -7290,13 +7263,13 @@
         <v>1503390</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7311,13 +7284,13 @@
         <v>2242531</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="H34" s="7">
         <v>2088</v>
@@ -7326,13 +7299,13 @@
         <v>2144164</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="M34" s="7">
         <v>4198</v>
@@ -7341,13 +7314,13 @@
         <v>4386696</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7362,13 +7335,13 @@
         <v>3377618</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H35" s="7">
         <v>3326</v>
@@ -7377,13 +7350,13 @@
         <v>3532100</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M35" s="7">
         <v>6541</v>
@@ -7392,18 +7365,18 @@
         <v>6909718</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -7422,7 +7395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799652E6-AFBE-4BFC-B4E9-BDAD1BB08EEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF9516D-D0D0-495E-B239-8EA2352ED858}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7439,7 +7412,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7552,7 +7525,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7567,7 +7540,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7603,7 +7576,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7618,7 +7591,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -7654,7 +7627,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -7669,7 +7642,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -7705,7 +7678,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -7720,7 +7693,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -7756,7 +7729,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -7771,7 +7744,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -7807,7 +7780,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -7822,7 +7795,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -7852,13 +7825,13 @@
         <v>541634</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H10" s="7">
         <v>1427</v>
@@ -7867,13 +7840,13 @@
         <v>835953</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M10" s="7">
         <v>2118</v>
@@ -7882,13 +7855,13 @@
         <v>1377586</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7903,13 +7876,13 @@
         <v>541634</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>1427</v>
@@ -7918,13 +7891,13 @@
         <v>835953</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M11" s="7">
         <v>2118</v>
@@ -7933,18 +7906,18 @@
         <v>1377586</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="5">
         <v>6</v>
@@ -7962,7 +7935,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -7977,7 +7950,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -7992,7 +7965,7 @@
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8013,7 +7986,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -8028,7 +8001,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -8043,7 +8016,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8064,7 +8037,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8079,7 +8052,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -8094,7 +8067,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8115,7 +8088,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -8130,7 +8103,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -8145,7 +8118,7 @@
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8166,7 +8139,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8181,7 +8154,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -8196,7 +8169,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8217,7 +8190,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -8232,7 +8205,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -8247,7 +8220,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8262,28 +8235,28 @@
         <v>2162022</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H18" s="7">
         <v>2921</v>
       </c>
       <c r="I18" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M18" s="7">
         <v>4913</v>
@@ -8292,13 +8265,13 @@
         <v>4411543</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8313,28 +8286,28 @@
         <v>2162022</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H19" s="7">
         <v>2921</v>
       </c>
       <c r="I19" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M19" s="7">
         <v>4913</v>
@@ -8343,18 +8316,18 @@
         <v>4411543</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5">
         <v>6</v>
@@ -8372,7 +8345,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -8387,7 +8360,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -8402,7 +8375,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>504</v>
+        <v>539</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8423,7 +8396,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -8438,7 +8411,7 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -8453,7 +8426,7 @@
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>504</v>
+        <v>539</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8474,7 +8447,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -8489,7 +8462,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -8504,7 +8477,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>504</v>
+        <v>539</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8525,7 +8498,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -8540,7 +8513,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -8555,7 +8528,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>504</v>
+        <v>539</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8576,7 +8549,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -8591,7 +8564,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -8606,7 +8579,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>504</v>
+        <v>539</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8627,7 +8600,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -8642,7 +8615,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -8657,7 +8630,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>504</v>
+        <v>539</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8672,13 +8645,13 @@
         <v>673039</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H26" s="7">
         <v>1004</v>
@@ -8687,13 +8660,13 @@
         <v>713886</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M26" s="7">
         <v>1685</v>
@@ -8702,13 +8675,13 @@
         <v>1386926</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8723,13 +8696,13 @@
         <v>673039</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H27" s="7">
         <v>1004</v>
@@ -8738,13 +8711,13 @@
         <v>713886</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M27" s="7">
         <v>1685</v>
@@ -8753,13 +8726,13 @@
         <v>1386926</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8782,7 +8755,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -8797,7 +8770,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -8812,7 +8785,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8833,7 +8806,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -8848,7 +8821,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -8863,7 +8836,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8884,7 +8857,7 @@
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -8899,7 +8872,7 @@
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -8914,7 +8887,7 @@
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8935,7 +8908,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -8950,7 +8923,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -8965,7 +8938,7 @@
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8986,7 +8959,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -9001,7 +8974,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -9016,7 +8989,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9037,7 +9010,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -9052,7 +9025,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -9067,7 +9040,7 @@
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9079,16 +9052,16 @@
         <v>3364</v>
       </c>
       <c r="D34" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>551</v>
-      </c>
       <c r="G34" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H34" s="7">
         <v>5352</v>
@@ -9097,28 +9070,28 @@
         <v>3799360</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M34" s="7">
         <v>8716</v>
       </c>
       <c r="N34" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9130,16 +9103,16 @@
         <v>3364</v>
       </c>
       <c r="D35" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H35" s="7">
         <v>5352</v>
@@ -9148,33 +9121,33 @@
         <v>3799360</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M35" s="7">
         <v>8716</v>
       </c>
       <c r="N35" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/cron_prev_index-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/cron_prev_index-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C93B1E0-21B0-4092-86BB-5722E76AED05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{517F0625-96C3-4D61-AA16-FAF998D44364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{35C4D4CF-C171-4F54-8D75-B2006FE33D9A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FFF61EF4-63CE-4EBE-83F0-C50F74190BE6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -83,1555 +83,1558 @@
     <t>0,41%</t>
   </si>
   <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
     <t>0,16%</t>
   </si>
   <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Índice de cronicidad física en base a la prevalencia en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>Índice de cronicidad física en base a la prevalencia en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
   </si>
   <si>
     <t>3,77%</t>
   </si>
   <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Índice de cronicidad física en base a la prevalencia en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>Índice de cronicidad física en base a la prevalencia en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
   </si>
   <si>
     <t>8,06%</t>
   </si>
   <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
   </si>
   <si>
     <t>10,2%</t>
   </si>
   <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
   </si>
   <si>
     <t>9,15%</t>
   </si>
   <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
   </si>
   <si>
     <t>22,45%</t>
   </si>
   <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
+    <t>23,98%</t>
   </si>
   <si>
     <t>21,76%</t>
   </si>
   <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
   </si>
   <si>
     <t>66,39%</t>
   </si>
   <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
   </si>
   <si>
     <t>60,71%</t>
   </si>
   <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
   </si>
   <si>
     <t>63,49%</t>
   </si>
   <si>
-    <t>64,65%</t>
+    <t>62,34%</t>
   </si>
   <si>
     <t>Índice de cronicidad física en base a la prevalencia en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1656,9 +1659,6 @@
   </si>
   <si>
     <t>99,96%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
   </si>
   <si>
     <t>99,81%</t>
@@ -2082,7 +2082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEE803F-F5FE-4A6E-B4DF-27CA55E157AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9E7610-EF13-457E-8D03-695819FC1D7B}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2338,13 +2338,13 @@
         <v>61800</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,13 +2359,13 @@
         <v>54981</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" s="7">
         <v>120</v>
@@ -2374,13 +2374,13 @@
         <v>124261</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>177</v>
@@ -2389,13 +2389,13 @@
         <v>179241</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,13 +2410,13 @@
         <v>161779</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="7">
         <v>274</v>
@@ -2425,13 +2425,13 @@
         <v>281944</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>446</v>
@@ -2440,13 +2440,13 @@
         <v>443723</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,13 +2461,13 @@
         <v>267537</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H9" s="7">
         <v>355</v>
@@ -2476,13 +2476,13 @@
         <v>358229</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>627</v>
@@ -2491,13 +2491,13 @@
         <v>625767</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,13 +2512,13 @@
         <v>523831</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>489</v>
@@ -2527,13 +2527,13 @@
         <v>494935</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>1000</v>
@@ -2542,13 +2542,13 @@
         <v>1018766</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2563,13 +2563,13 @@
         <v>1031723</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>1291</v>
@@ -2578,13 +2578,13 @@
         <v>1315113</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>2329</v>
@@ -2593,18 +2593,18 @@
         <v>2346836</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" s="5">
         <v>6</v>
@@ -2616,13 +2616,13 @@
         <v>909</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2637,7 +2637,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -2646,13 +2646,13 @@
         <v>909</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2667,13 +2667,13 @@
         <v>909</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2682,13 +2682,13 @@
         <v>1998</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -2700,10 +2700,10 @@
         <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,13 +2718,13 @@
         <v>6135</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -2733,13 +2733,13 @@
         <v>7075</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -2748,13 +2748,13 @@
         <v>13210</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,13 +2769,13 @@
         <v>22600</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H15" s="7">
         <v>10</v>
@@ -2784,13 +2784,13 @@
         <v>10035</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M15" s="7">
         <v>33</v>
@@ -2799,13 +2799,13 @@
         <v>32635</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,13 +2820,13 @@
         <v>43912</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7">
         <v>74</v>
@@ -2835,13 +2835,13 @@
         <v>75587</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>118</v>
@@ -2850,13 +2850,13 @@
         <v>119499</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,13 +2871,13 @@
         <v>277190</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>294</v>
@@ -2886,13 +2886,13 @@
         <v>302159</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>566</v>
@@ -2901,13 +2901,13 @@
         <v>579349</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,13 +2922,13 @@
         <v>1341758</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>1168</v>
@@ -2937,13 +2937,13 @@
         <v>1190820</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>2470</v>
@@ -2952,13 +2952,13 @@
         <v>2532578</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,16 +2970,16 @@
         <v>1649</v>
       </c>
       <c r="D19" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H19" s="7">
         <v>1554</v>
@@ -2988,13 +2988,13 @@
         <v>1587673</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M19" s="7">
         <v>3203</v>
@@ -3003,18 +3003,18 @@
         <v>3281086</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5">
         <v>6</v>
@@ -3032,7 +3032,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3062,7 +3062,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,7 +3083,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -3098,7 +3098,7 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3128,13 @@
         <v>4381</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -3143,13 +3143,13 @@
         <v>1274</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -3158,13 +3158,13 @@
         <v>5655</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3179,13 @@
         <v>3634</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -3194,13 +3194,13 @@
         <v>5092</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -3209,13 +3209,13 @@
         <v>8725</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,13 +3230,13 @@
         <v>19285</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H24" s="7">
         <v>15</v>
@@ -3245,13 +3245,13 @@
         <v>15985</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M24" s="7">
         <v>33</v>
@@ -3260,13 +3260,13 @@
         <v>35270</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3281,13 @@
         <v>88221</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H25" s="7">
         <v>82</v>
@@ -3296,13 +3296,13 @@
         <v>88110</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="M25" s="7">
         <v>166</v>
@@ -3311,13 +3311,13 @@
         <v>176331</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,13 +3332,13 @@
         <v>435887</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H26" s="7">
         <v>349</v>
@@ -3347,13 +3347,13 @@
         <v>365951</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M26" s="7">
         <v>766</v>
@@ -3362,13 +3362,13 @@
         <v>801839</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3383,13 @@
         <v>551408</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H27" s="7">
         <v>452</v>
@@ -3398,13 +3398,13 @@
         <v>476412</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M27" s="7">
         <v>979</v>
@@ -3413,13 +3413,13 @@
         <v>1027820</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,13 +3436,13 @@
         <v>909</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -3451,13 +3451,13 @@
         <v>5332</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -3469,10 +3469,10 @@
         <v>17</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3487,13 @@
         <v>6319</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -3502,13 +3502,13 @@
         <v>8795</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="M29" s="7">
         <v>15</v>
@@ -3520,10 +3520,10 @@
         <v>16</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3538,13 @@
         <v>28701</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="H30" s="7">
         <v>49</v>
@@ -3553,13 +3553,13 @@
         <v>51963</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M30" s="7">
         <v>79</v>
@@ -3568,13 +3568,13 @@
         <v>80665</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3589,13 @@
         <v>81214</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>101</v>
+        <v>182</v>
       </c>
       <c r="H31" s="7">
         <v>135</v>
@@ -3604,13 +3604,13 @@
         <v>139388</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M31" s="7">
         <v>219</v>
@@ -3619,13 +3619,13 @@
         <v>220602</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,13 +3640,13 @@
         <v>224975</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="H32" s="7">
         <v>363</v>
@@ -3655,13 +3655,13 @@
         <v>373516</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M32" s="7">
         <v>597</v>
@@ -3670,13 +3670,13 @@
         <v>598491</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,16 +3688,16 @@
         <v>628</v>
       </c>
       <c r="D33" s="7">
-        <v>632949</v>
+        <v>632948</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>47</v>
+        <v>197</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H33" s="7">
         <v>731</v>
@@ -3706,13 +3706,13 @@
         <v>748498</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="M33" s="7">
         <v>1359</v>
@@ -3721,13 +3721,13 @@
         <v>1381446</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,16 +3739,16 @@
         <v>2230</v>
       </c>
       <c r="D34" s="7">
-        <v>2301477</v>
+        <v>2301476</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="H34" s="7">
         <v>2006</v>
@@ -3757,13 +3757,13 @@
         <v>2051706</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="M34" s="7">
         <v>4236</v>
@@ -3772,13 +3772,13 @@
         <v>4353182</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,16 +3790,16 @@
         <v>3214</v>
       </c>
       <c r="D35" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H35" s="7">
         <v>3297</v>
@@ -3808,13 +3808,13 @@
         <v>3379198</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M35" s="7">
         <v>6511</v>
@@ -3823,18 +3823,18 @@
         <v>6655741</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3853,7 +3853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C405FF-00F9-4C1A-A73F-61FCD85EA22E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFE68FB-77C4-4249-9BC6-77633B5336A1}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3870,7 +3870,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3995,10 +3995,10 @@
         <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4007,13 +4007,13 @@
         <v>3058</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,13 +4028,13 @@
         <v>7482</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -4043,13 +4043,13 @@
         <v>19948</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>142</v>
+        <v>223</v>
       </c>
       <c r="M5" s="7">
         <v>26</v>
@@ -4058,13 +4058,13 @@
         <v>27430</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4079,13 @@
         <v>33885</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>218</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="H6" s="7">
         <v>58</v>
@@ -4094,13 +4094,13 @@
         <v>61875</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>96</v>
+        <v>230</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="M6" s="7">
         <v>87</v>
@@ -4109,13 +4109,13 @@
         <v>95760</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,13 +4130,13 @@
         <v>102642</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="H7" s="7">
         <v>148</v>
@@ -4145,13 +4145,13 @@
         <v>157409</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="M7" s="7">
         <v>244</v>
@@ -4160,13 +4160,13 @@
         <v>260051</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,13 +4181,13 @@
         <v>170478</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="H8" s="7">
         <v>266</v>
@@ -4196,13 +4196,13 @@
         <v>281831</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="M8" s="7">
         <v>421</v>
@@ -4211,13 +4211,13 @@
         <v>452309</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,13 +4232,13 @@
         <v>226533</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="H9" s="7">
         <v>332</v>
@@ -4247,13 +4247,13 @@
         <v>356632</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="M9" s="7">
         <v>538</v>
@@ -4262,13 +4262,13 @@
         <v>583166</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,13 +4283,13 @@
         <v>433623</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>421</v>
@@ -4298,13 +4298,13 @@
         <v>457044</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>836</v>
@@ -4313,13 +4313,13 @@
         <v>890667</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4334,13 +4334,13 @@
         <v>974643</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>1247</v>
@@ -4349,13 +4349,13 @@
         <v>1337796</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>2155</v>
@@ -4364,18 +4364,18 @@
         <v>2312440</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" s="5">
         <v>6</v>
@@ -4387,13 +4387,13 @@
         <v>1051</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>259</v>
+        <v>24</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4408,7 +4408,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -4417,13 +4417,13 @@
         <v>1051</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4444,7 +4444,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4459,7 +4459,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4474,7 +4474,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4489,13 +4489,13 @@
         <v>5086</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -4504,13 +4504,13 @@
         <v>6110</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>163</v>
+        <v>272</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -4519,13 +4519,13 @@
         <v>11195</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4540,13 +4540,13 @@
         <v>30543</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>264</v>
+        <v>220</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H15" s="7">
         <v>21</v>
@@ -4555,13 +4555,13 @@
         <v>25625</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>213</v>
+        <v>278</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="M15" s="7">
         <v>49</v>
@@ -4570,13 +4570,13 @@
         <v>56168</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>27</v>
+        <v>176</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4591,13 +4591,13 @@
         <v>96841</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="H16" s="7">
         <v>83</v>
@@ -4606,13 +4606,13 @@
         <v>91270</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>35</v>
+        <v>286</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="M16" s="7">
         <v>173</v>
@@ -4621,13 +4621,13 @@
         <v>188110</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4642,13 +4642,13 @@
         <v>326388</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="H17" s="7">
         <v>307</v>
@@ -4657,13 +4657,13 @@
         <v>334991</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>111</v>
+        <v>294</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="M17" s="7">
         <v>609</v>
@@ -4672,13 +4672,13 @@
         <v>661379</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4693,13 +4693,13 @@
         <v>1504049</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="H18" s="7">
         <v>1218</v>
@@ -4708,13 +4708,13 @@
         <v>1299808</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="M18" s="7">
         <v>2648</v>
@@ -4723,13 +4723,13 @@
         <v>2803857</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,13 +4744,13 @@
         <v>1963957</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H19" s="7">
         <v>1635</v>
@@ -4759,13 +4759,13 @@
         <v>1757803</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M19" s="7">
         <v>3491</v>
@@ -4774,18 +4774,18 @@
         <v>3721760</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5">
         <v>6</v>
@@ -4803,7 +4803,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4818,7 +4818,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4848,13 +4848,13 @@
         <v>2145</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>87</v>
+        <v>310</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -4863,13 +4863,13 @@
         <v>1162</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -4878,13 +4878,13 @@
         <v>3307</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>163</v>
+        <v>272</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>300</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,7 +4905,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -4914,13 +4914,13 @@
         <v>4238</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>15</v>
+        <v>313</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -4929,13 +4929,13 @@
         <v>4238</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>21</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4950,13 +4950,13 @@
         <v>8175</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>96</v>
+        <v>187</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -4965,13 +4965,13 @@
         <v>1805</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>304</v>
+        <v>168</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -4980,13 +4980,13 @@
         <v>9980</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>21</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>172</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,13 +5001,13 @@
         <v>12379</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>128</v>
+        <v>320</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -5016,13 +5016,13 @@
         <v>15844</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="M24" s="7">
         <v>24</v>
@@ -5031,13 +5031,13 @@
         <v>28224</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>177</v>
+        <v>326</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,13 +5052,13 @@
         <v>86170</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="H25" s="7">
         <v>70</v>
@@ -5067,13 +5067,13 @@
         <v>80180</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="M25" s="7">
         <v>149</v>
@@ -5082,13 +5082,13 @@
         <v>166349</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5103,13 +5103,13 @@
         <v>372312</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="H26" s="7">
         <v>322</v>
@@ -5118,13 +5118,13 @@
         <v>355401</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="M26" s="7">
         <v>663</v>
@@ -5133,13 +5133,13 @@
         <v>727714</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,13 +5154,13 @@
         <v>481181</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H27" s="7">
         <v>412</v>
@@ -5169,13 +5169,13 @@
         <v>458631</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M27" s="7">
         <v>850</v>
@@ -5184,13 +5184,13 @@
         <v>939812</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,13 +5207,13 @@
         <v>1051</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>330</v>
+        <v>14</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -5225,7 +5225,7 @@
         <v>17</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>16</v>
@@ -5237,13 +5237,13 @@
         <v>4109</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>330</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5258,13 +5258,13 @@
         <v>9627</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>19</v>
+        <v>348</v>
       </c>
       <c r="H29" s="7">
         <v>20</v>
@@ -5273,13 +5273,13 @@
         <v>21110</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>133</v>
+        <v>350</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>15</v>
+        <v>351</v>
       </c>
       <c r="M29" s="7">
         <v>28</v>
@@ -5288,13 +5288,13 @@
         <v>30737</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,13 +5309,13 @@
         <v>38971</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>90</v>
+        <v>315</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>335</v>
+        <v>126</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="H30" s="7">
         <v>68</v>
@@ -5324,13 +5324,13 @@
         <v>72222</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>172</v>
+        <v>353</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>337</v>
+        <v>220</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="M30" s="7">
         <v>102</v>
@@ -5339,13 +5339,13 @@
         <v>111193</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>339</v>
+        <v>139</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>340</v>
+        <v>88</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,13 +5360,13 @@
         <v>141360</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="H31" s="7">
         <v>170</v>
@@ -5375,13 +5375,13 @@
         <v>184839</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="M31" s="7">
         <v>301</v>
@@ -5390,13 +5390,13 @@
         <v>326199</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,13 +5411,13 @@
         <v>279698</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="H32" s="7">
         <v>363</v>
@@ -5426,13 +5426,13 @@
         <v>388945</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="M32" s="7">
         <v>618</v>
@@ -5441,13 +5441,13 @@
         <v>668643</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,13 +5462,13 @@
         <v>639092</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="H33" s="7">
         <v>709</v>
@@ -5477,13 +5477,13 @@
         <v>771803</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="M33" s="7">
         <v>1296</v>
@@ -5492,13 +5492,13 @@
         <v>1410894</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>364</v>
+        <v>246</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,13 +5513,13 @@
         <v>2309985</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="H34" s="7">
         <v>1961</v>
@@ -5528,13 +5528,13 @@
         <v>2112253</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="M34" s="7">
         <v>4147</v>
@@ -5543,13 +5543,13 @@
         <v>4422238</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5564,13 +5564,13 @@
         <v>3419782</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H35" s="7">
         <v>3294</v>
@@ -5579,13 +5579,13 @@
         <v>3554230</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M35" s="7">
         <v>6496</v>
@@ -5594,18 +5594,18 @@
         <v>6974012</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -5624,7 +5624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02A8E8A-28CA-4D2D-9754-B0148C0A87CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99AD509-BAC8-4474-AF05-5670EC0AD87F}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5641,7 +5641,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5754,7 +5754,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5763,13 +5763,13 @@
         <v>1213</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>377</v>
+        <v>271</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5778,13 +5778,13 @@
         <v>1213</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>83</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5799,13 +5799,13 @@
         <v>4507</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>378</v>
+        <v>173</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -5814,13 +5814,13 @@
         <v>13118</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>262</v>
+        <v>87</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>380</v>
+        <v>314</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -5829,13 +5829,13 @@
         <v>17626</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,13 +5850,13 @@
         <v>18713</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>382</v>
+        <v>128</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="H6" s="7">
         <v>38</v>
@@ -5865,13 +5865,13 @@
         <v>44513</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="M6" s="7">
         <v>59</v>
@@ -5880,13 +5880,13 @@
         <v>63226</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5901,13 +5901,13 @@
         <v>72248</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="H7" s="7">
         <v>92</v>
@@ -5916,13 +5916,13 @@
         <v>106967</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="M7" s="7">
         <v>169</v>
@@ -5931,13 +5931,13 @@
         <v>179215</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,13 +5952,13 @@
         <v>123134</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="H8" s="7">
         <v>169</v>
@@ -5967,13 +5967,13 @@
         <v>198918</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="M8" s="7">
         <v>300</v>
@@ -5982,13 +5982,13 @@
         <v>322052</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,13 +6003,13 @@
         <v>188245</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="H9" s="7">
         <v>273</v>
@@ -6018,13 +6018,13 @@
         <v>305062</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>253</v>
+        <v>422</v>
       </c>
       <c r="M9" s="7">
         <v>464</v>
@@ -6033,13 +6033,13 @@
         <v>493307</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6054,13 +6054,13 @@
         <v>347498</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="H10" s="7">
         <v>308</v>
@@ -6069,13 +6069,13 @@
         <v>324869</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="M10" s="7">
         <v>645</v>
@@ -6084,13 +6084,13 @@
         <v>672367</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6105,13 +6105,13 @@
         <v>754347</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>892</v>
@@ -6120,13 +6120,13 @@
         <v>994660</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>1654</v>
@@ -6135,18 +6135,18 @@
         <v>1749007</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" s="5">
         <v>6</v>
@@ -6164,7 +6164,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -6173,13 +6173,13 @@
         <v>1033</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -6188,13 +6188,13 @@
         <v>1033</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6215,7 +6215,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -6224,13 +6224,13 @@
         <v>1979</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>424</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -6239,13 +6239,13 @@
         <v>1979</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6260,13 +6260,13 @@
         <v>13974</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>424</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -6275,13 +6275,13 @@
         <v>14030</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>304</v>
+        <v>86</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>427</v>
+        <v>312</v>
       </c>
       <c r="M14" s="7">
         <v>24</v>
@@ -6290,13 +6290,13 @@
         <v>28004</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>439</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6311,13 +6311,13 @@
         <v>37658</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>430</v>
+        <v>310</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="H15" s="7">
         <v>36</v>
@@ -6326,13 +6326,13 @@
         <v>42780</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>433</v>
+        <v>280</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>310</v>
+        <v>443</v>
       </c>
       <c r="M15" s="7">
         <v>72</v>
@@ -6341,13 +6341,13 @@
         <v>80437</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>336</v>
+        <v>445</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6362,13 +6362,13 @@
         <v>110695</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>436</v>
+        <v>31</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="H16" s="7">
         <v>118</v>
@@ -6377,13 +6377,13 @@
         <v>133294</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="M16" s="7">
         <v>224</v>
@@ -6392,13 +6392,13 @@
         <v>243988</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>442</v>
+        <v>145</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6413,13 +6413,13 @@
         <v>413466</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>446</v>
+        <v>375</v>
       </c>
       <c r="H17" s="7">
         <v>366</v>
@@ -6428,13 +6428,13 @@
         <v>390797</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>449</v>
+        <v>205</v>
       </c>
       <c r="M17" s="7">
         <v>757</v>
@@ -6443,13 +6443,13 @@
         <v>804263</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>196</v>
+        <v>456</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6464,13 +6464,13 @@
         <v>1500593</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="H18" s="7">
         <v>1373</v>
@@ -6479,13 +6479,13 @@
         <v>1404387</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="M18" s="7">
         <v>2780</v>
@@ -6494,13 +6494,13 @@
         <v>2904980</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6515,13 +6515,13 @@
         <v>2076385</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H19" s="7">
         <v>1908</v>
@@ -6530,13 +6530,13 @@
         <v>1988300</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M19" s="7">
         <v>3860</v>
@@ -6545,18 +6545,18 @@
         <v>4064685</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5">
         <v>6</v>
@@ -6574,7 +6574,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>350</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6589,7 +6589,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6604,7 +6604,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6619,13 +6619,13 @@
         <v>924</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>461</v>
+        <v>84</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6640,7 +6640,7 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -6649,13 +6649,13 @@
         <v>924</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6670,13 +6670,13 @@
         <v>1763</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>340</v>
+        <v>468</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -6685,13 +6685,13 @@
         <v>1033</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>462</v>
+        <v>27</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -6700,13 +6700,13 @@
         <v>2796</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>15</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6721,13 +6721,13 @@
         <v>2658</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>433</v>
+        <v>226</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -6736,13 +6736,13 @@
         <v>8258</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>470</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>464</v>
+        <v>349</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>465</v>
+        <v>103</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -6751,13 +6751,13 @@
         <v>10916</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>466</v>
+        <v>275</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6772,13 +6772,13 @@
         <v>38297</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>343</v>
+        <v>473</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="H24" s="7">
         <v>22</v>
@@ -6787,13 +6787,13 @@
         <v>27925</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="M24" s="7">
         <v>56</v>
@@ -6802,13 +6802,13 @@
         <v>66221</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>473</v>
+        <v>360</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>474</v>
+        <v>361</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6823,13 +6823,13 @@
         <v>108803</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>478</v>
+        <v>202</v>
       </c>
       <c r="H25" s="7">
         <v>89</v>
@@ -6838,13 +6838,13 @@
         <v>97016</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="M25" s="7">
         <v>186</v>
@@ -6853,13 +6853,13 @@
         <v>205820</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6874,13 +6874,13 @@
         <v>394441</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="H26" s="7">
         <v>407</v>
@@ -6889,13 +6889,13 @@
         <v>414908</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="M26" s="7">
         <v>773</v>
@@ -6904,13 +6904,13 @@
         <v>809348</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6925,13 +6925,13 @@
         <v>546886</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H27" s="7">
         <v>526</v>
@@ -6940,13 +6940,13 @@
         <v>549140</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M27" s="7">
         <v>1027</v>
@@ -6955,13 +6955,13 @@
         <v>1096026</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6984,7 +6984,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -6993,13 +6993,13 @@
         <v>2247</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>16</v>
+        <v>495</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -7008,13 +7008,13 @@
         <v>2247</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>260</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7029,13 +7029,13 @@
         <v>5432</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>212</v>
+        <v>435</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -7044,13 +7044,13 @@
         <v>15097</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>493</v>
+        <v>138</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>78</v>
+        <v>311</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>428</v>
+        <v>273</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -7059,13 +7059,13 @@
         <v>20529</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>297</v>
+        <v>439</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7080,13 +7080,13 @@
         <v>34450</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>428</v>
+        <v>94</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="H30" s="7">
         <v>51</v>
@@ -7095,13 +7095,13 @@
         <v>59576</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>495</v>
+        <v>312</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M30" s="7">
         <v>85</v>
@@ -7110,13 +7110,13 @@
         <v>94027</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>300</v>
+        <v>498</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>216</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7131,13 +7131,13 @@
         <v>112564</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H31" s="7">
         <v>135</v>
@@ -7146,13 +7146,13 @@
         <v>158004</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>140</v>
+        <v>505</v>
       </c>
       <c r="M31" s="7">
         <v>250</v>
@@ -7161,13 +7161,13 @@
         <v>270569</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7182,13 +7182,13 @@
         <v>272126</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="H32" s="7">
         <v>309</v>
@@ -7197,13 +7197,13 @@
         <v>360136</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="M32" s="7">
         <v>580</v>
@@ -7212,13 +7212,13 @@
         <v>632262</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7233,13 +7233,13 @@
         <v>710515</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>514</v>
+        <v>458</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="H33" s="7">
         <v>728</v>
@@ -7248,13 +7248,13 @@
         <v>792875</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>518</v>
+        <v>110</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M33" s="7">
         <v>1407</v>
@@ -7263,13 +7263,13 @@
         <v>1503390</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7284,13 +7284,13 @@
         <v>2242531</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H34" s="7">
         <v>2088</v>
@@ -7299,13 +7299,13 @@
         <v>2144164</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M34" s="7">
         <v>4198</v>
@@ -7314,13 +7314,13 @@
         <v>4386696</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7335,13 +7335,13 @@
         <v>3377618</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H35" s="7">
         <v>3326</v>
@@ -7350,13 +7350,13 @@
         <v>3532100</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M35" s="7">
         <v>6541</v>
@@ -7365,18 +7365,18 @@
         <v>6909718</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -7395,7 +7395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF9516D-D0D0-495E-B239-8EA2352ED858}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CED43E-3994-4D68-9A53-025E4E42C188}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7412,7 +7412,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7525,7 +7525,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7540,7 +7540,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7576,7 +7576,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7591,7 +7591,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -7627,7 +7627,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -7642,7 +7642,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -7678,7 +7678,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -7693,7 +7693,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -7729,7 +7729,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -7744,7 +7744,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -7780,7 +7780,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -7795,7 +7795,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -7825,13 +7825,13 @@
         <v>541634</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H10" s="7">
         <v>1427</v>
@@ -7840,13 +7840,13 @@
         <v>835953</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M10" s="7">
         <v>2118</v>
@@ -7855,13 +7855,13 @@
         <v>1377586</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7876,13 +7876,13 @@
         <v>541634</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>1427</v>
@@ -7891,13 +7891,13 @@
         <v>835953</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>2118</v>
@@ -7906,18 +7906,18 @@
         <v>1377586</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" s="5">
         <v>6</v>
@@ -7935,7 +7935,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -7950,7 +7950,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -7965,7 +7965,7 @@
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7986,7 +7986,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -8001,7 +8001,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8037,7 +8037,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8052,7 +8052,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8088,7 +8088,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -8103,7 +8103,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -8118,7 +8118,7 @@
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8139,7 +8139,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8154,7 +8154,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -8169,7 +8169,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8190,7 +8190,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -8205,7 +8205,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -8220,7 +8220,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8235,13 +8235,13 @@
         <v>2162022</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H18" s="7">
         <v>2921</v>
@@ -8250,13 +8250,13 @@
         <v>2249521</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M18" s="7">
         <v>4913</v>
@@ -8265,13 +8265,13 @@
         <v>4411543</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8286,13 +8286,13 @@
         <v>2162022</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H19" s="7">
         <v>2921</v>
@@ -8301,13 +8301,13 @@
         <v>2249521</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M19" s="7">
         <v>4913</v>
@@ -8316,18 +8316,18 @@
         <v>4411543</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5">
         <v>6</v>
@@ -8345,7 +8345,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -8360,7 +8360,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -8375,7 +8375,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>539</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8396,7 +8396,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -8411,7 +8411,7 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -8426,7 +8426,7 @@
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>539</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8447,7 +8447,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -8477,7 +8477,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>539</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8498,7 +8498,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -8513,7 +8513,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>539</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8549,7 +8549,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -8564,7 +8564,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -8579,7 +8579,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>539</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8600,7 +8600,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -8615,7 +8615,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -8630,7 +8630,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>539</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8645,13 +8645,13 @@
         <v>673039</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H26" s="7">
         <v>1004</v>
@@ -8660,13 +8660,13 @@
         <v>713886</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>540</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M26" s="7">
         <v>1685</v>
@@ -8675,13 +8675,13 @@
         <v>1386926</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>541</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8696,13 +8696,13 @@
         <v>673039</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H27" s="7">
         <v>1004</v>
@@ -8711,13 +8711,13 @@
         <v>713886</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M27" s="7">
         <v>1685</v>
@@ -8726,13 +8726,13 @@
         <v>1386926</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8755,7 +8755,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -8770,7 +8770,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -8785,7 +8785,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8806,7 +8806,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -8821,7 +8821,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -8836,7 +8836,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8857,7 +8857,7 @@
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -8872,7 +8872,7 @@
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -8887,7 +8887,7 @@
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8908,7 +8908,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -8923,7 +8923,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8959,7 +8959,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8974,7 +8974,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -8989,7 +8989,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9010,7 +9010,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -9025,7 +9025,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -9040,7 +9040,7 @@
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9055,13 +9055,13 @@
         <v>3376694</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>542</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H34" s="7">
         <v>5352</v>
@@ -9070,13 +9070,13 @@
         <v>3799360</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M34" s="7">
         <v>8716</v>
@@ -9085,13 +9085,13 @@
         <v>7176054</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>543</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9106,13 +9106,13 @@
         <v>3376694</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H35" s="7">
         <v>5352</v>
@@ -9121,13 +9121,13 @@
         <v>3799360</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M35" s="7">
         <v>8716</v>
@@ -9136,18 +9136,18 @@
         <v>7176054</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/cron_prev_index-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/cron_prev_index-Estudios-trans_orig.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,47</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,1; 1,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,57; 1,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,41; 1,53</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,66</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,39; 0,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,55; 1,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,52; 1,02</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,53</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,47; 0,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,47; 0,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,49; 0,57</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,78</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,5; 0,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,78; 1,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,69; 1,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/cron_prev_index-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/cron_prev_index-Estudios-trans_orig.xlsx
@@ -724,37 +724,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 0,89</t>
+          <t>0,76; 0,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,15</t>
+          <t>1,0; 1,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 1,08</t>
+          <t>0,92; 1,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,31</t>
+          <t>1,1; 1,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,24</t>
+          <t>1,11; 1,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,24; 1,39</t>
+          <t>1,25; 1,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,2; 1,36</t>
+          <t>1,2; 1,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,98; 1,07</t>
+          <t>0,97; 1,07</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,21</t>
+          <t>1,1; 1,22</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,41; 1,53</t>
+          <t>1,41; 1,54</t>
         </is>
       </c>
     </row>
@@ -874,12 +874,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 0,42</t>
+          <t>0,36; 0,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,39; 0,6</t>
+          <t>0,37; 0,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,12 +894,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 0,48</t>
+          <t>0,4; 0,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,48</t>
+          <t>0,56; 1,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,02</t>
+          <t>0,53; 1,03</t>
         </is>
       </c>
     </row>
@@ -1009,12 +1009,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 0,39</t>
+          <t>0,24; 0,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 0,44</t>
+          <t>0,32; 0,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,12 +1024,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 0,36</t>
+          <t>0,24; 0,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 0,38</t>
+          <t>0,24; 0,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 0,33</t>
+          <t>0,25; 0,34</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,5; 0,69</t>
+          <t>0,48; 0,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,12 +1179,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,39</t>
+          <t>0,79; 1,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,53; 0,58</t>
+          <t>0,53; 0,57</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,57; 0,61</t>
+          <t>0,56; 0,61</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
